--- a/biology/Histoire de la zoologie et de la botanique/Baldo_Angelo_Abati/Baldo_Angelo_Abati.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Baldo_Angelo_Abati/Baldo_Angelo_Abati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baldo Angelo Abati (ou Abbati), dit Baldus Angelus Abbatius (né vers le milieu du XVIe siècle à Gubbio, dans la province de Pérouse, en Ombrie - mort ? ) est un médecin, un physicien et un zoologiste italien qui fut le médecin personnel du duc d'Urbino François Marie II della Rovere[1].
-Il est aussi appelé Balde Angelo d'Abbate ou d'Abbati[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baldo Angelo Abati (ou Abbati), dit Baldus Angelus Abbatius (né vers le milieu du XVIe siècle à Gubbio, dans la province de Pérouse, en Ombrie - mort ? ) est un médecin, un physicien et un zoologiste italien qui fut le médecin personnel du duc d'Urbino François Marie II della Rovere.
+Il est aussi appelé Balde Angelo d'Abbate ou d'Abbati,.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre de Baldo Angelo Abati intitulé De admirabili viperae natura et de mirificis eiusdem facultatibus[3], publié à Urbino en 1589 fut l'un des tout  premiers ouvrages sur les serpents. Il était dédicacé à François Marie II della Rovere, le 6e duc d'Urbino. Une seconde édition parut, toujours à Urbino, en 1591 et une autre à Nuremberg en Allemagne en 1603. Il connut deux autres éditions jusqu'en 1660. Cinq des 32 chapitres sont consacrés au venin des serpents, à son pouvoir et à ses applications médicales possibles. Dans le chapitre 14, Abbati, qui a disséqué un serpent à sonnettes, énumère les parties comestibles du serpent et fournit des informations sur les différentes manières dont il est possible de préparer des repas avec sa viande.
-Baldo Angelo Abati fit encore paraître : Opus discussarum concertationum praeclarum, de rebus, verbis, et sententiis controversis, ex omnibus fere scriptoribus, libri XV[4] publié à Pesaro en 1594.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre de Baldo Angelo Abati intitulé De admirabili viperae natura et de mirificis eiusdem facultatibus, publié à Urbino en 1589 fut l'un des tout  premiers ouvrages sur les serpents. Il était dédicacé à François Marie II della Rovere, le 6e duc d'Urbino. Une seconde édition parut, toujours à Urbino, en 1591 et une autre à Nuremberg en Allemagne en 1603. Il connut deux autres éditions jusqu'en 1660. Cinq des 32 chapitres sont consacrés au venin des serpents, à son pouvoir et à ses applications médicales possibles. Dans le chapitre 14, Abbati, qui a disséqué un serpent à sonnettes, énumère les parties comestibles du serpent et fournit des informations sur les différentes manières dont il est possible de préparer des repas avec sa viande.
+Baldo Angelo Abati fit encore paraître : Opus discussarum concertationum praeclarum, de rebus, verbis, et sententiis controversis, ex omnibus fere scriptoribus, libri XV publié à Pesaro en 1594.
 </t>
         </is>
       </c>
